--- a/raw_data/20200818_saline/20200818_Sensor1_Test_84.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_84.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB9A8E-F9F7-4B24-AC41-3E100D0F0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>74889.766147</v>
+        <v>74889.766147000002</v>
       </c>
       <c r="B2" s="1">
-        <v>20.802713</v>
+        <v>20.802713000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.407000</v>
+        <v>902.40700000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.493000</v>
+        <v>-196.49299999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>74899.817537</v>
+        <v>74899.817536999995</v>
       </c>
       <c r="G2" s="1">
         <v>20.805505</v>
       </c>
       <c r="H2" s="1">
-        <v>919.553000</v>
+        <v>919.553</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.482000</v>
+        <v>-167.482</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>74910.355540</v>
+        <v>74910.355540000004</v>
       </c>
       <c r="L2" s="1">
         <v>20.808432</v>
       </c>
       <c r="M2" s="1">
-        <v>944.040000</v>
+        <v>944.04</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.791000</v>
+        <v>-119.791</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>74921.169813</v>
@@ -526,1086 +942,1086 @@
         <v>20.811436</v>
       </c>
       <c r="R2" s="1">
-        <v>951.197000</v>
+        <v>951.197</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.019000</v>
+        <v>-104.01900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>74931.169512</v>
+        <v>74931.169511999993</v>
       </c>
       <c r="V2" s="1">
         <v>20.814214</v>
       </c>
       <c r="W2" s="1">
-        <v>958.316000</v>
+        <v>958.31600000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.144500</v>
+        <v>-89.144499999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>74941.324252</v>
+        <v>74941.324252000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.817035</v>
+        <v>20.817035000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.952000</v>
+        <v>965.952</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.511300</v>
+        <v>-77.511300000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>74951.199102</v>
+        <v>74951.199101999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.819778</v>
+        <v>20.819777999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.940000</v>
+        <v>970.94</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.155500</v>
+        <v>-75.155500000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>74961.396848</v>
+        <v>74961.396848000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.822610</v>
+        <v>20.822610000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.295000</v>
+        <v>978.29499999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.609800</v>
+        <v>-79.609800000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>74971.941299</v>
+        <v>74971.941298999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.825539</v>
+        <v>20.825538999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.447000</v>
+        <v>986.447</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.948600</v>
+        <v>-90.948599999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>74982.878580</v>
+        <v>74982.878580000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.828577</v>
+        <v>20.828576999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.321000</v>
+        <v>996.32100000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.358000</v>
+        <v>-108.358</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>74994.054935</v>
+        <v>74994.054934999993</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.831682</v>
+        <v>20.831682000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>75005.082486</v>
+        <v>75005.082485999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.834745</v>
+        <v>20.834745000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.074000</v>
+        <v>-195.07400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>75016.085241</v>
+        <v>75016.085240999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.837801</v>
+        <v>20.837800999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.282000</v>
+        <v>-310.28199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>75027.142058</v>
+        <v>75027.142057999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.840873</v>
+        <v>20.840872999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.597000</v>
+        <v>-490.59699999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>75038.315434</v>
+        <v>75038.315434000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.843977</v>
+        <v>20.843976999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1340.510000</v>
+        <v>1340.51</v>
       </c>
       <c r="BV2" s="1">
-        <v>-687.476000</v>
+        <v>-687.476</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>75049.286940</v>
+        <v>75049.286940000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.847024</v>
+        <v>20.847024000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1475.330000</v>
+        <v>1475.33</v>
       </c>
       <c r="CA2" s="1">
-        <v>-895.989000</v>
+        <v>-895.98900000000003</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>75060.573909</v>
+        <v>75060.573908999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.850159</v>
+        <v>20.850159000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.110000</v>
+        <v>1826.11</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1390.950000</v>
+        <v>-1390.95</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>74890.123230</v>
+        <v>74890.123229999997</v>
       </c>
       <c r="B3" s="1">
-        <v>20.802812</v>
+        <v>20.802811999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.461000</v>
+        <v>902.46100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.490000</v>
+        <v>-196.49</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>74900.472268</v>
+        <v>74900.472267999998</v>
       </c>
       <c r="G3" s="1">
-        <v>20.805687</v>
+        <v>20.805686999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>920.302000</v>
+        <v>920.30200000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.570000</v>
+        <v>-167.57</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>74911.008275</v>
       </c>
       <c r="L3" s="1">
-        <v>20.808613</v>
+        <v>20.808613000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>943.925000</v>
+        <v>943.92499999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.905000</v>
+        <v>-119.905</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>74921.585958</v>
+        <v>74921.585957999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.811552</v>
+        <v>20.811551999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>951.244000</v>
+        <v>951.24400000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.973000</v>
+        <v>-103.973</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>74931.513385</v>
+        <v>74931.513384999998</v>
       </c>
       <c r="V3" s="1">
-        <v>20.814309</v>
+        <v>20.814309000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>958.409000</v>
+        <v>958.40899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.193900</v>
+        <v>-89.193899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>74941.675914</v>
+        <v>74941.675914000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.817132</v>
+        <v>20.817132000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.049000</v>
+        <v>966.04899999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.426800</v>
+        <v>-77.4268</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>74951.580562</v>
+        <v>74951.580562000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.819883</v>
+        <v>20.819883000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.908000</v>
+        <v>970.90800000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.169100</v>
+        <v>-75.1691</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>74962.014863</v>
+        <v>74962.014863000004</v>
       </c>
       <c r="AK3" s="1">
         <v>20.822782</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.291000</v>
+        <v>978.29100000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.608700</v>
+        <v>-79.608699999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>74972.371826</v>
+        <v>74972.371826000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.825659</v>
+        <v>20.825659000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.463000</v>
+        <v>986.46299999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.936300</v>
+        <v>-90.936300000000003</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>74983.330436</v>
+        <v>74983.330436000004</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.828703</v>
+        <v>20.828703000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.302000</v>
+        <v>996.30200000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.345000</v>
+        <v>-108.345</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>74994.538044</v>
+        <v>74994.538044000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>20.831816</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>75005.443574</v>
+        <v>75005.443574000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.834845</v>
+        <v>20.834845000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.099000</v>
+        <v>-195.09899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>75016.461949</v>
+        <v>75016.461949000004</v>
       </c>
       <c r="BJ3" s="1">
         <v>20.837906</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.210000</v>
+        <v>1110.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.307000</v>
+        <v>-310.30700000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>75027.561178</v>
+        <v>75027.561178000004</v>
       </c>
       <c r="BO3" s="1">
         <v>20.840989</v>
       </c>
       <c r="BP3" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.591000</v>
+        <v>-490.59100000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>75038.767786</v>
+        <v>75038.767785999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.844102</v>
+        <v>20.844101999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1340.540000</v>
+        <v>1340.54</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.483000</v>
+        <v>-687.48299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>75049.754669</v>
+        <v>75049.754669000002</v>
       </c>
       <c r="BY3" s="1">
         <v>20.847154</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1475.120000</v>
+        <v>1475.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-896.092000</v>
+        <v>-896.09199999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>75061.164142</v>
+        <v>75061.164141999994</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.850323</v>
+        <v>20.850322999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.180000</v>
+        <v>1825.18</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1389.690000</v>
+        <v>-1389.69</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>74890.794815</v>
+        <v>74890.794815000001</v>
       </c>
       <c r="B4" s="1">
         <v>20.802999</v>
       </c>
       <c r="C4" s="1">
-        <v>902.259000</v>
+        <v>902.25900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.550000</v>
+        <v>-196.55</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>74900.850705</v>
+        <v>74900.850705000004</v>
       </c>
       <c r="G4" s="1">
         <v>20.805792</v>
       </c>
       <c r="H4" s="1">
-        <v>920.206000</v>
+        <v>920.20600000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.311000</v>
+        <v>-167.31100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>74911.391682</v>
+        <v>74911.391682000001</v>
       </c>
       <c r="L4" s="1">
-        <v>20.808720</v>
+        <v>20.808720000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.088000</v>
+        <v>944.08799999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.820000</v>
+        <v>-119.82</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>74921.934646</v>
+        <v>74921.934645999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.811649</v>
+        <v>20.811648999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>951.294000</v>
+        <v>951.29399999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.982000</v>
+        <v>-103.982</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>74931.859591</v>
       </c>
       <c r="V4" s="1">
-        <v>20.814405</v>
+        <v>20.814405000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>958.364000</v>
+        <v>958.36400000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.188300</v>
+        <v>-89.188299999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>74942.023611</v>
+        <v>74942.023610999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.817229</v>
+        <v>20.817229000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.010000</v>
+        <v>966.01</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.490900</v>
+        <v>-77.490899999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>74952.020478</v>
+        <v>74952.020478000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.820006</v>
+        <v>20.820005999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.944000</v>
+        <v>970.94399999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.155000</v>
+        <v>-75.155000000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>74962.445424</v>
+        <v>74962.445424000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.822902</v>
+        <v>20.822901999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.294000</v>
+        <v>978.29399999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.604100</v>
+        <v>-79.604100000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>74972.702162</v>
+        <v>74972.702162000001</v>
       </c>
       <c r="AP4" s="1">
         <v>20.825751</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.451000</v>
+        <v>986.45100000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.968800</v>
+        <v>-90.968800000000002</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>74983.709875</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.828808</v>
+        <v>20.828807999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.321000</v>
+        <v>996.32100000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.358000</v>
+        <v>-108.358</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>74994.829684</v>
+        <v>74994.829683999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.831897</v>
+        <v>20.831897000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.845000</v>
+        <v>-123.845</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>75005.803669</v>
+        <v>75005.803669000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.834945</v>
+        <v>20.834945000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.091000</v>
+        <v>-195.09100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>75016.880361</v>
+        <v>75016.880361000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.838022</v>
+        <v>20.838021999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.316000</v>
+        <v>-310.31599999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>75028.396936</v>
+        <v>75028.396936000005</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.841221</v>
+        <v>20.841221000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.654000</v>
+        <v>-490.654</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>75039.192857</v>
+        <v>75039.192857000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.844220</v>
+        <v>20.84422</v>
       </c>
       <c r="BU4" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.438000</v>
+        <v>-687.43799999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>75050.186187</v>
+        <v>75050.186186999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.847274</v>
+        <v>20.847273999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1475.330000</v>
+        <v>1475.33</v>
       </c>
       <c r="CA4" s="1">
-        <v>-896.094000</v>
+        <v>-896.09400000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>75062.030652</v>
+        <v>75062.030652000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.850564</v>
+        <v>20.850563999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.570000</v>
+        <v>1826.57</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1390.680000</v>
+        <v>-1390.68</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>74891.144494</v>
+        <v>74891.144493999993</v>
       </c>
       <c r="B5" s="1">
         <v>20.803096</v>
       </c>
       <c r="C5" s="1">
-        <v>902.317000</v>
+        <v>902.31700000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.504000</v>
+        <v>-196.50399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>74901.194433</v>
+        <v>74901.194432999997</v>
       </c>
       <c r="G5" s="1">
-        <v>20.805887</v>
+        <v>20.805886999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>920.021000</v>
+        <v>920.02099999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.507000</v>
+        <v>-167.50700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>74911.737894</v>
+        <v>74911.737894000005</v>
       </c>
       <c r="L5" s="1">
         <v>20.808816</v>
       </c>
       <c r="M5" s="1">
-        <v>943.984000</v>
+        <v>943.98400000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.905000</v>
+        <v>-119.905</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>74922.281845</v>
+        <v>74922.281845000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.811745</v>
+        <v>20.811744999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>951.251000</v>
+        <v>951.25099999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.023000</v>
+        <v>-104.023</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>74932.286648</v>
+        <v>74932.286647999994</v>
       </c>
       <c r="V5" s="1">
-        <v>20.814524</v>
+        <v>20.814523999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>958.361000</v>
+        <v>958.36099999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.170400</v>
+        <v>-89.170400000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>74942.457641</v>
+        <v>74942.457641000001</v>
       </c>
       <c r="AA5" s="1">
         <v>20.817349</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.232000</v>
+        <v>966.23199999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.494100</v>
+        <v>-77.494100000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>74952.301709</v>
+        <v>74952.301709000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.820084</v>
+        <v>20.820084000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.916000</v>
+        <v>970.91600000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.138000</v>
+        <v>-75.138000000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>74962.796558</v>
+        <v>74962.796558000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.822999</v>
+        <v>20.822998999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.290000</v>
+        <v>978.29</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.635800</v>
+        <v>-79.635800000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>74973.062785</v>
+        <v>74973.062785000002</v>
       </c>
       <c r="AP5" s="1">
         <v>20.825851</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.444000</v>
+        <v>986.44399999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.940200</v>
+        <v>-90.940200000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>74984.077410</v>
+        <v>74984.077409999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.828910</v>
+        <v>20.82891</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.325000</v>
+        <v>996.32500000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.345000</v>
+        <v>-108.345</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>74995.547042</v>
+        <v>74995.547042000006</v>
       </c>
       <c r="AZ5" s="1">
         <v>20.832096</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>75006.535301</v>
+        <v>75006.535300999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.835149</v>
+        <v>20.835149000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.098000</v>
+        <v>-195.09800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>75017.239964</v>
+        <v>75017.239963999993</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.838122</v>
+        <v>20.838121999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.220000</v>
+        <v>1110.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.321000</v>
+        <v>-310.32100000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>75028.794727</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.841332</v>
+        <v>20.841332000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.641000</v>
+        <v>-490.64100000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>75039.605529</v>
+        <v>75039.605528999993</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.844335</v>
+        <v>20.844335000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.532000</v>
+        <v>-687.53200000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>75050.921754</v>
+        <v>75050.921753999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.847478</v>
+        <v>20.847477999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.300000</v>
+        <v>1475.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-896.172000</v>
+        <v>-896.17200000000003</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>75062.245915</v>
+        <v>75062.245915000007</v>
       </c>
       <c r="CD5" s="1">
         <v>20.850624</v>
       </c>
       <c r="CE5" s="1">
-        <v>1826.430000</v>
+        <v>1826.43</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1390.870000</v>
+        <v>-1390.87</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>74891.493677</v>
+        <v>74891.493677000006</v>
       </c>
       <c r="B6" s="1">
         <v>20.803193</v>
       </c>
       <c r="C6" s="1">
-        <v>902.425000</v>
+        <v>902.42499999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.521000</v>
+        <v>-196.52099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>74901.545103</v>
+        <v>74901.545102999997</v>
       </c>
       <c r="G6" s="1">
         <v>20.805985</v>
       </c>
       <c r="H6" s="1">
-        <v>920.299000</v>
+        <v>920.29899999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.704000</v>
+        <v>-167.70400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>74912.158001</v>
+        <v>74912.158001000003</v>
       </c>
       <c r="L6" s="1">
         <v>20.808933</v>
       </c>
       <c r="M6" s="1">
-        <v>944.048000</v>
+        <v>944.048</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.858000</v>
+        <v>-119.858</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>74922.721797</v>
+        <v>74922.721797000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.811867</v>
+        <v>20.811866999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>951.251000</v>
+        <v>951.25099999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.058000</v>
+        <v>-104.05800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>74932.554486</v>
+        <v>74932.554485999994</v>
       </c>
       <c r="V6" s="1">
         <v>20.814598</v>
       </c>
       <c r="W6" s="1">
-        <v>958.335000</v>
+        <v>958.33500000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.076200</v>
+        <v>-89.0762</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>74942.736856</v>
+        <v>74942.736856000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.817427</v>
+        <v>20.817426999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.938000</v>
+        <v>965.93799999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.435700</v>
+        <v>-77.435699999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>74952.643948</v>
+        <v>74952.643947999997</v>
       </c>
       <c r="AF6" s="1">
         <v>20.820179</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.882000</v>
+        <v>970.88199999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.136500</v>
+        <v>-75.136499999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>74963.145246</v>
@@ -1614,694 +2030,694 @@
         <v>20.823096</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.291000</v>
+        <v>978.29100000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.611100</v>
+        <v>-79.611099999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>74973.421392</v>
+        <v>74973.421392000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.825950</v>
+        <v>20.825949999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.429000</v>
+        <v>986.42899999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.969700</v>
+        <v>-90.969700000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>74984.803089</v>
+        <v>74984.803088999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.829112</v>
+        <v>20.829111999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.312000</v>
+        <v>996.31200000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.354000</v>
+        <v>-108.354</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>74995.906498</v>
+        <v>74995.906497999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>20.832196</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>75006.914708</v>
+        <v>75006.914707999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.835254</v>
+        <v>20.835253999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1043.260000</v>
+        <v>1043.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.095000</v>
+        <v>-195.095</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>75017.614438</v>
+        <v>75017.614438000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.838226</v>
+        <v>20.838225999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.282000</v>
+        <v>-310.28199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>75029.531288</v>
+        <v>75029.531287999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.841536</v>
+        <v>20.841536000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.648000</v>
+        <v>-490.64800000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>75040.332698</v>
+        <v>75040.332697999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.844537</v>
+        <v>20.844536999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1340.550000</v>
+        <v>1340.55</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.511000</v>
+        <v>-687.51099999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>75051.056666</v>
+        <v>75051.056666000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.847516</v>
+        <v>20.847515999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1475.300000</v>
+        <v>1475.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-896.114000</v>
+        <v>-896.11400000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>75062.764730</v>
+        <v>75062.764729999995</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.850768</v>
+        <v>20.850767999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.750000</v>
+        <v>1825.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1389.670000</v>
+        <v>-1389.67</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>74891.834925</v>
+        <v>74891.834925000003</v>
       </c>
       <c r="B7" s="1">
-        <v>20.803287</v>
+        <v>20.803287000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>902.235000</v>
+        <v>902.23500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.570000</v>
+        <v>-196.57</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>74901.999439</v>
+        <v>74901.999439000007</v>
       </c>
       <c r="G7" s="1">
-        <v>20.806111</v>
+        <v>20.806111000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>920.302000</v>
+        <v>920.30200000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.893000</v>
+        <v>-166.893</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>74912.448671</v>
+        <v>74912.448671000006</v>
       </c>
       <c r="L7" s="1">
-        <v>20.809014</v>
+        <v>20.809014000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>944.032000</v>
+        <v>944.03200000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.777000</v>
+        <v>-119.777</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>74922.988680</v>
+        <v>74922.988679999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.811941</v>
+        <v>20.811941000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>951.246000</v>
+        <v>951.24599999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.084000</v>
+        <v>-104.084</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>74932.897717</v>
       </c>
       <c r="V7" s="1">
-        <v>20.814694</v>
+        <v>20.814693999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>958.370000</v>
+        <v>958.37</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.093900</v>
+        <v>-89.093900000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>74943.085049</v>
+        <v>74943.085049000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.817524</v>
+        <v>20.817523999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.923000</v>
+        <v>965.923</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.518400</v>
+        <v>-77.5184</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>74952.987675</v>
+        <v>74952.987674999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.820274</v>
+        <v>20.820274000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.787000</v>
+        <v>970.78700000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.079700</v>
+        <v>-75.079700000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>74963.840174</v>
+        <v>74963.840173999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.823289</v>
+        <v>20.823288999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.293000</v>
+        <v>978.29300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.618700</v>
+        <v>-79.618700000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>74974.142047</v>
+        <v>74974.142047000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.826151</v>
+        <v>20.826150999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.465000</v>
+        <v>986.46500000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.933700</v>
+        <v>-90.933700000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>74985.195393</v>
+        <v>74985.195393000002</v>
       </c>
       <c r="AU7" s="1">
         <v>20.829221</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.323000</v>
+        <v>996.32299999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.361000</v>
+        <v>-108.361</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>74996.264610</v>
+        <v>74996.264609999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.832296</v>
+        <v>20.832295999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.580000</v>
+        <v>1004.58</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.877000</v>
+        <v>-123.877</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>75007.274307</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.835354</v>
+        <v>20.835353999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.097000</v>
+        <v>-195.09700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>75018.300406</v>
+        <v>75018.300405999995</v>
       </c>
       <c r="BJ7" s="1">
         <v>20.838417</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.280000</v>
+        <v>-310.27999999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>75030.045141</v>
+        <v>75030.045140999995</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.841679</v>
+        <v>20.841678999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.650000</v>
+        <v>-490.65</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>75040.461161</v>
+        <v>75040.461160999999</v>
       </c>
       <c r="BT7" s="1">
         <v>20.844573</v>
       </c>
       <c r="BU7" s="1">
-        <v>1340.550000</v>
+        <v>1340.55</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.497000</v>
+        <v>-687.49699999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>75051.483753</v>
+        <v>75051.483752999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.847634</v>
+        <v>20.847633999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1475.280000</v>
+        <v>1475.28</v>
       </c>
       <c r="CA7" s="1">
-        <v>-896.077000</v>
+        <v>-896.077</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>75063.283545</v>
+        <v>75063.283544999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.850912</v>
+        <v>20.850912000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.170000</v>
+        <v>1826.17</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1389.960000</v>
+        <v>-1389.96</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>74892.254539</v>
+        <v>74892.254539000001</v>
       </c>
       <c r="B8" s="1">
         <v>20.803404</v>
       </c>
       <c r="C8" s="1">
-        <v>902.476000</v>
+        <v>902.476</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.408000</v>
+        <v>-196.40799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>74902.247438</v>
+        <v>74902.247438000006</v>
       </c>
       <c r="G8" s="1">
-        <v>20.806180</v>
+        <v>20.806180000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.928000</v>
+        <v>919.928</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.831000</v>
+        <v>-167.83099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>74912.794401</v>
+        <v>74912.794401000006</v>
       </c>
       <c r="L8" s="1">
-        <v>20.809110</v>
+        <v>20.80911</v>
       </c>
       <c r="M8" s="1">
-        <v>944.059000</v>
+        <v>944.05899999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.927000</v>
+        <v>-119.92700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>74923.335844</v>
+        <v>74923.335844000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.812038</v>
+        <v>20.812038000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>951.261000</v>
+        <v>951.26099999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.025000</v>
+        <v>-104.02500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>74933.242933</v>
+        <v>74933.242933000001</v>
       </c>
       <c r="V8" s="1">
-        <v>20.814790</v>
+        <v>20.814789999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>958.217000</v>
+        <v>958.21699999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.180500</v>
+        <v>-89.180499999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>74943.437208</v>
+        <v>74943.437208000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.817621</v>
+        <v>20.817620999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.989000</v>
+        <v>965.98900000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.467600</v>
+        <v>-77.467600000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>74953.674634</v>
+        <v>74953.674633999995</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.820465</v>
+        <v>20.820464999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.884000</v>
+        <v>970.88400000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.158700</v>
+        <v>-75.158699999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>74964.188333</v>
+        <v>74964.188332999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.823386</v>
+        <v>20.823385999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.294000</v>
+        <v>978.29399999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.625500</v>
+        <v>-79.625500000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>74974.503136</v>
+        <v>74974.503135999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.826251</v>
+        <v>20.826250999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.441000</v>
+        <v>986.44100000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.939200</v>
+        <v>-90.9392</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>74985.562433</v>
+        <v>74985.562432999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.829323</v>
+        <v>20.829322999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.331000</v>
+        <v>996.33100000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.362000</v>
+        <v>-108.36199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>74996.945645</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.832485</v>
+        <v>20.832484999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.859000</v>
+        <v>-123.85899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>75007.945395</v>
+        <v>75007.945395000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.835540</v>
+        <v>20.835540000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.094000</v>
+        <v>-195.09399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>75018.741316</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.838539</v>
+        <v>20.838539000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.316000</v>
+        <v>-310.31599999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>75030.455333</v>
+        <v>75030.455333000005</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.841793</v>
+        <v>20.841792999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.673000</v>
+        <v>-490.673</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>75040.877304</v>
+        <v>75040.877303999994</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.844688</v>
+        <v>20.844688000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1340.500000</v>
+        <v>1340.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.537000</v>
+        <v>-687.53700000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>75051.899865</v>
+        <v>75051.899864999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.847750</v>
+        <v>20.847750000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.250000</v>
+        <v>1475.25</v>
       </c>
       <c r="CA8" s="1">
-        <v>-896.156000</v>
+        <v>-896.15599999999995</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>75063.835097</v>
+        <v>75063.835097000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.851065</v>
+        <v>20.851064999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.700000</v>
+        <v>1826.7</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1390.960000</v>
+        <v>-1390.96</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>74892.533328</v>
+        <v>74892.533328000005</v>
       </c>
       <c r="B9" s="1">
-        <v>20.803481</v>
+        <v>20.803481000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>902.411000</v>
+        <v>902.41099999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.550000</v>
+        <v>-196.55</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>74902.592654</v>
+        <v>74902.592653999993</v>
       </c>
       <c r="G9" s="1">
         <v>20.806276</v>
       </c>
       <c r="H9" s="1">
-        <v>919.690000</v>
+        <v>919.69</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.992000</v>
+        <v>-167.99199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>74913.142064</v>
@@ -2310,345 +2726,345 @@
         <v>20.809206</v>
       </c>
       <c r="M9" s="1">
-        <v>944.070000</v>
+        <v>944.07</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.022000</v>
+        <v>-120.02200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>74923.692004</v>
+        <v>74923.692003999997</v>
       </c>
       <c r="Q9" s="1">
         <v>20.812137</v>
       </c>
       <c r="R9" s="1">
-        <v>951.250000</v>
+        <v>951.25</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.000000</v>
+        <v>-104</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>74933.929894</v>
+        <v>74933.929894000001</v>
       </c>
       <c r="V9" s="1">
         <v>20.814981</v>
       </c>
       <c r="W9" s="1">
-        <v>958.359000</v>
+        <v>958.35900000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.105400</v>
+        <v>-89.105400000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>74944.133095</v>
+        <v>74944.133094999997</v>
       </c>
       <c r="AA9" s="1">
         <v>20.817815</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.005000</v>
+        <v>966.005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.479600</v>
+        <v>-77.479600000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>74954.019884</v>
+        <v>74954.019883999994</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.820561</v>
+        <v>20.820561000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.886000</v>
+        <v>970.88599999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.135000</v>
+        <v>-75.135000000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>74964.538013</v>
+        <v>74964.538012999998</v>
       </c>
       <c r="AK9" s="1">
         <v>20.823483</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.305000</v>
+        <v>978.30499999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.621700</v>
+        <v>-79.621700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>74974.865710</v>
+        <v>74974.865709999998</v>
       </c>
       <c r="AP9" s="1">
         <v>20.826352</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.450000</v>
+        <v>986.45</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.941600</v>
+        <v>-90.941599999999994</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>74986.241492</v>
+        <v>74986.241492000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.829512</v>
+        <v>20.829512000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.323000</v>
+        <v>996.32299999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.366000</v>
+        <v>-108.366</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>74997.371718</v>
+        <v>74997.371717999995</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.832603</v>
+        <v>20.832602999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>75008.387827</v>
+        <v>75008.387826999999</v>
       </c>
       <c r="BE9" s="1">
         <v>20.835663</v>
       </c>
       <c r="BF9" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.109000</v>
+        <v>-195.10900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>75019.115828</v>
+        <v>75019.115827999995</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.838643</v>
+        <v>20.838643000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.319000</v>
+        <v>-310.31900000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>75030.851172</v>
+        <v>75030.851171999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.841903</v>
+        <v>20.841902999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.643000</v>
+        <v>-490.64299999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>75041.293129</v>
+        <v>75041.293128999998</v>
       </c>
       <c r="BT9" s="1">
         <v>20.844804</v>
       </c>
       <c r="BU9" s="1">
-        <v>1340.490000</v>
+        <v>1340.49</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.436000</v>
+        <v>-687.43600000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>75052.348750</v>
+        <v>75052.348750000005</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.847875</v>
+        <v>20.847874999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1475.320000</v>
+        <v>1475.32</v>
       </c>
       <c r="CA9" s="1">
-        <v>-896.255000</v>
+        <v>-896.255</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>75064.366312</v>
+        <v>75064.366311999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.851213</v>
+        <v>20.851213000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.980000</v>
+        <v>1825.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1389.700000</v>
+        <v>-1389.7</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>74892.876062</v>
+        <v>74892.876061999996</v>
       </c>
       <c r="B10" s="1">
-        <v>20.803577</v>
+        <v>20.803577000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>902.272000</v>
+        <v>902.27200000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.429000</v>
+        <v>-196.429</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>74902.938669</v>
+        <v>74902.938668999996</v>
       </c>
       <c r="G10" s="1">
         <v>20.806372</v>
       </c>
       <c r="H10" s="1">
-        <v>920.626000</v>
+        <v>920.62599999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.979000</v>
+        <v>-166.97900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>74913.836463</v>
       </c>
       <c r="L10" s="1">
-        <v>20.809399</v>
+        <v>20.809398999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>944.104000</v>
+        <v>944.10400000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.013000</v>
+        <v>-120.01300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>74924.390833</v>
+        <v>74924.390832999998</v>
       </c>
       <c r="Q10" s="1">
         <v>20.812331</v>
       </c>
       <c r="R10" s="1">
-        <v>951.285000</v>
+        <v>951.28499999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.009000</v>
+        <v>-104.009</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>74934.274116</v>
+        <v>74934.274116000001</v>
       </c>
       <c r="V10" s="1">
-        <v>20.815076</v>
+        <v>20.815076000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>958.239000</v>
+        <v>958.23900000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.073300</v>
+        <v>-89.073300000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>74944.481783</v>
+        <v>74944.481782999996</v>
       </c>
       <c r="AA10" s="1">
         <v>20.817912</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.966000</v>
+        <v>965.96600000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.433300</v>
+        <v>-77.433300000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>74954.360601</v>
+        <v>74954.360600999993</v>
       </c>
       <c r="AF10" s="1">
         <v>20.820656</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.912000</v>
+        <v>970.91200000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.151700</v>
+        <v>-75.151700000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>74965.206619</v>
+        <v>74965.206619000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.823669</v>
+        <v>20.823668999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.299000</v>
+        <v>978.29899999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.616200</v>
+        <v>-79.616200000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>74975.538814</v>
@@ -2657,407 +3073,407 @@
         <v>20.826539</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.468000</v>
+        <v>986.46799999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.944000</v>
+        <v>-90.944000000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>74986.690334</v>
+        <v>74986.690333999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.829636</v>
+        <v>20.829636000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.324000</v>
+        <v>996.32399999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.350000</v>
+        <v>-108.35</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>74997.747648</v>
+        <v>74997.747648000004</v>
       </c>
       <c r="AZ10" s="1">
         <v>20.832708</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>75008.752387</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.835765</v>
+        <v>20.835764999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.090000</v>
+        <v>-195.09</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>75019.492260</v>
+        <v>75019.492259999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>20.838748</v>
+        <v>20.838747999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.210000</v>
+        <v>1110.21</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.300000</v>
+        <v>-310.3</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>75031.285636</v>
+        <v>75031.285636000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.842024</v>
+        <v>20.842023999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1218.850000</v>
+        <v>1218.8499999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.631000</v>
+        <v>-490.63099999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>75041.721462</v>
+        <v>75041.721462000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.844923</v>
+        <v>20.844923000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1340.480000</v>
+        <v>1340.48</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.515000</v>
+        <v>-687.51499999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>75052.769387</v>
+        <v>75052.769386999993</v>
       </c>
       <c r="BY10" s="1">
         <v>20.847991</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.270000</v>
+        <v>1475.27</v>
       </c>
       <c r="CA10" s="1">
-        <v>-896.150000</v>
+        <v>-896.15</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>75064.883639</v>
+        <v>75064.883639000007</v>
       </c>
       <c r="CD10" s="1">
         <v>20.851357</v>
       </c>
       <c r="CE10" s="1">
-        <v>1824.810000</v>
+        <v>1824.81</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1390.570000</v>
+        <v>-1390.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>74893.217770</v>
+        <v>74893.217770000003</v>
       </c>
       <c r="B11" s="1">
-        <v>20.803672</v>
+        <v>20.803671999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>902.299000</v>
+        <v>902.29899999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.617000</v>
+        <v>-196.61699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>74903.633757</v>
+        <v>74903.633757000003</v>
       </c>
       <c r="G11" s="1">
-        <v>20.806565</v>
+        <v>20.806564999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>919.853000</v>
+        <v>919.85299999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.608000</v>
+        <v>-167.608</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>74914.190118</v>
+        <v>74914.190117999999</v>
       </c>
       <c r="L11" s="1">
         <v>20.809497</v>
       </c>
       <c r="M11" s="1">
-        <v>943.988000</v>
+        <v>943.98800000000006</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.865000</v>
+        <v>-119.86499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>74924.736795</v>
+        <v>74924.736795000004</v>
       </c>
       <c r="Q11" s="1">
         <v>20.812427</v>
       </c>
       <c r="R11" s="1">
-        <v>951.239000</v>
+        <v>951.23900000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.016000</v>
+        <v>-104.01600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>74934.617348</v>
       </c>
       <c r="V11" s="1">
-        <v>20.815171</v>
+        <v>20.815170999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>958.446000</v>
+        <v>958.44600000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.106000</v>
+        <v>-89.105999999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>74944.826998</v>
+        <v>74944.826998000004</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.818007</v>
+        <v>20.818007000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.896000</v>
+        <v>965.89599999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.469400</v>
+        <v>-77.469399999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>74955.023754</v>
+        <v>74955.023753999994</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.820840</v>
+        <v>20.82084</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.867000</v>
+        <v>970.86699999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.151200</v>
+        <v>-75.151200000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>74965.585067</v>
+        <v>74965.585067000007</v>
       </c>
       <c r="AK11" s="1">
         <v>20.823774</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.298000</v>
+        <v>978.298</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.605000</v>
+        <v>-79.605000000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>74975.973279</v>
+        <v>74975.973278999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.826659</v>
+        <v>20.826658999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.456000</v>
+        <v>986.45600000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.945600</v>
+        <v>-90.945599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>74987.053904</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.829737</v>
+        <v>20.829737000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.318000</v>
+        <v>996.31799999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.365000</v>
+        <v>-108.36499999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>74998.108241</v>
+        <v>74998.108240999994</v>
       </c>
       <c r="AZ11" s="1">
         <v>20.832808</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.848000</v>
+        <v>-123.848</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>75009.113473</v>
+        <v>75009.113473000005</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.835865</v>
+        <v>20.835864999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.104000</v>
+        <v>-195.10400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>75019.915380</v>
+        <v>75019.915380000006</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.838865</v>
+        <v>20.838864999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.304000</v>
+        <v>-310.30399999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>75031.668580</v>
+        <v>75031.668579999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.842130</v>
+        <v>20.842130000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.641000</v>
+        <v>-490.64100000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>75042.159430</v>
+        <v>75042.15943</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.845044</v>
+        <v>20.845044000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1340.510000</v>
+        <v>1340.51</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.542000</v>
+        <v>-687.54200000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>75053.191943</v>
+        <v>75053.191942999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.848109</v>
+        <v>20.848109000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1475.330000</v>
+        <v>1475.33</v>
       </c>
       <c r="CA11" s="1">
-        <v>-896.198000</v>
+        <v>-896.19799999999998</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>75065.398983</v>
+        <v>75065.398983000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.851500</v>
+        <v>20.851500000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1825.700000</v>
+        <v>1825.7</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1391.440000</v>
+        <v>-1391.44</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>74893.900265</v>
+        <v>74893.900265000004</v>
       </c>
       <c r="B12" s="1">
-        <v>20.803861</v>
+        <v>20.803861000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>902.430000</v>
+        <v>902.43</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.476000</v>
+        <v>-196.476</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>74903.987404</v>
@@ -3066,1116 +3482,1116 @@
         <v>20.806663</v>
       </c>
       <c r="H12" s="1">
-        <v>919.745000</v>
+        <v>919.745</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.592000</v>
+        <v>-167.59200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>74914.531358</v>
+        <v>74914.531357999993</v>
       </c>
       <c r="L12" s="1">
-        <v>20.809592</v>
+        <v>20.809591999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>944.213000</v>
+        <v>944.21299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.908000</v>
+        <v>-119.908</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>74925.084736</v>
+        <v>74925.084736000004</v>
       </c>
       <c r="Q12" s="1">
         <v>20.812524</v>
       </c>
       <c r="R12" s="1">
-        <v>951.279000</v>
+        <v>951.279</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.003000</v>
+        <v>-104.003</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>74935.285702</v>
+        <v>74935.285701999994</v>
       </c>
       <c r="V12" s="1">
-        <v>20.815357</v>
+        <v>20.815356999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>958.288000</v>
+        <v>958.28800000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.052300</v>
+        <v>-89.052300000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>74945.278358</v>
+        <v>74945.278357999996</v>
       </c>
       <c r="AA12" s="1">
         <v>20.818133</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.002000</v>
+        <v>966.00199999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.530800</v>
+        <v>-77.530799999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>74955.392776</v>
+        <v>74955.392775999993</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.820942</v>
+        <v>20.820941999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.905000</v>
+        <v>970.90499999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.162200</v>
+        <v>-75.162199999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>74965.934746</v>
+        <v>74965.934745999999</v>
       </c>
       <c r="AK12" s="1">
         <v>20.823871</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.302000</v>
+        <v>978.30200000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.613100</v>
+        <v>-79.613100000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>74976.336350</v>
+        <v>74976.336349999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.826760</v>
+        <v>20.82676</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.468000</v>
+        <v>986.46799999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.948900</v>
+        <v>-90.948899999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>74987.420943</v>
+        <v>74987.420943000005</v>
       </c>
       <c r="AU12" s="1">
         <v>20.829839</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.329000</v>
+        <v>996.32899999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.358000</v>
+        <v>-108.358</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>74998.527359</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.832924</v>
+        <v>20.832923999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.842000</v>
+        <v>-123.842</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>75009.538050</v>
+        <v>75009.538050000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.835983</v>
+        <v>20.835982999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.105000</v>
+        <v>-195.10499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>75020.264563</v>
+        <v>75020.264563000004</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.838962</v>
+        <v>20.838961999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.210000</v>
+        <v>1110.21</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.303000</v>
+        <v>-310.303</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>75032.089683</v>
+        <v>75032.089682999998</v>
       </c>
       <c r="BO12" s="1">
         <v>20.842247</v>
       </c>
       <c r="BP12" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.695000</v>
+        <v>-490.69499999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>75042.569621</v>
+        <v>75042.569621000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.845158</v>
+        <v>20.845158000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1340.530000</v>
+        <v>1340.53</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.550000</v>
+        <v>-687.55</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>75053.642844</v>
+        <v>75053.642844000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.848234</v>
+        <v>20.848234000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1475.210000</v>
+        <v>1475.21</v>
       </c>
       <c r="CA12" s="1">
-        <v>-896.180000</v>
+        <v>-896.18</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>75065.921766</v>
+        <v>75065.921765999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.851645</v>
+        <v>20.851645000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.240000</v>
+        <v>1825.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1391.420000</v>
+        <v>-1391.42</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>74894.243001</v>
+        <v>74894.243000999995</v>
       </c>
       <c r="B13" s="1">
-        <v>20.803956</v>
+        <v>20.803955999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>902.386000</v>
+        <v>902.38599999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.493000</v>
+        <v>-196.49299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>74904.331660</v>
+        <v>74904.331659999996</v>
       </c>
       <c r="G13" s="1">
         <v>20.806759</v>
       </c>
       <c r="H13" s="1">
-        <v>919.818000</v>
+        <v>919.81799999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.293000</v>
+        <v>-167.29300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>74915.206942</v>
+        <v>74915.206942000004</v>
       </c>
       <c r="L13" s="1">
-        <v>20.809780</v>
+        <v>20.80978</v>
       </c>
       <c r="M13" s="1">
-        <v>943.936000</v>
+        <v>943.93600000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.826000</v>
+        <v>-119.82599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>74925.759791</v>
+        <v>74925.759791000004</v>
       </c>
       <c r="Q13" s="1">
         <v>20.812711</v>
       </c>
       <c r="R13" s="1">
-        <v>951.228000</v>
+        <v>951.22799999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.995000</v>
+        <v>-103.995</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>74935.655977</v>
+        <v>74935.655977000002</v>
       </c>
       <c r="V13" s="1">
-        <v>20.815460</v>
+        <v>20.815460000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>958.336000</v>
+        <v>958.33600000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.073200</v>
+        <v>-89.0732</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>74945.544214</v>
+        <v>74945.544213999994</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.818207</v>
+        <v>20.818207000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.942000</v>
+        <v>965.94200000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.436800</v>
+        <v>-77.436800000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>74955.737000</v>
+        <v>74955.736999999994</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.821038</v>
+        <v>20.821038000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.913000</v>
+        <v>970.91300000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.158900</v>
+        <v>-75.158900000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>74966.279994</v>
+        <v>74966.279993999997</v>
       </c>
       <c r="AK13" s="1">
         <v>20.823967</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.316000</v>
+        <v>978.31600000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.603000</v>
+        <v>-79.602999999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>74976.694989</v>
+        <v>74976.694988999996</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.826860</v>
+        <v>20.82686</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.448000</v>
+        <v>986.44799999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.968900</v>
+        <v>-90.968900000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>74987.851501</v>
+        <v>74987.851500999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.829959</v>
+        <v>20.829958999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.324000</v>
+        <v>996.32399999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.355000</v>
+        <v>-108.355</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>74998.823012</v>
+        <v>74998.823011999993</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.833006</v>
+        <v>20.833006000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>75009.835154</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.836065</v>
+        <v>20.836065000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.094000</v>
+        <v>-195.09399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>75020.639011</v>
+        <v>75020.639011000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.839066</v>
+        <v>20.839065999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.293000</v>
+        <v>-310.29300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>75032.486978</v>
+        <v>75032.486978000001</v>
       </c>
       <c r="BO13" s="1">
         <v>20.842357</v>
       </c>
       <c r="BP13" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.676000</v>
+        <v>-490.67599999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>75043.000148</v>
+        <v>75043.000148000006</v>
       </c>
       <c r="BT13" s="1">
         <v>20.845278</v>
       </c>
       <c r="BU13" s="1">
-        <v>1340.540000</v>
+        <v>1340.54</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.529000</v>
+        <v>-687.529</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>75054.069893</v>
+        <v>75054.069893000007</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.848353</v>
+        <v>20.848352999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1475.330000</v>
+        <v>1475.33</v>
       </c>
       <c r="CA13" s="1">
-        <v>-896.186000</v>
+        <v>-896.18600000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>75066.473815</v>
+        <v>75066.473815000005</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.851798</v>
+        <v>20.851797999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.890000</v>
+        <v>1824.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1390.540000</v>
+        <v>-1390.54</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>74894.585737</v>
+        <v>74894.585737000001</v>
       </c>
       <c r="B14" s="1">
-        <v>20.804052</v>
+        <v>20.804051999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>902.443000</v>
+        <v>902.44299999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.620000</v>
+        <v>-196.62</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>74904.991307</v>
+        <v>74904.991307000004</v>
       </c>
       <c r="G14" s="1">
-        <v>20.806942</v>
+        <v>20.806941999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.184000</v>
+        <v>920.18399999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.242000</v>
+        <v>-167.24199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>74915.568990</v>
+        <v>74915.56899</v>
       </c>
       <c r="L14" s="1">
-        <v>20.809880</v>
+        <v>20.80988</v>
       </c>
       <c r="M14" s="1">
-        <v>944.106000</v>
+        <v>944.10599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.919000</v>
+        <v>-119.919</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>74926.131822</v>
+        <v>74926.131821999996</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.812814</v>
+        <v>20.812813999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>951.202000</v>
+        <v>951.202</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.989000</v>
+        <v>-103.989</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>74936.002674</v>
+        <v>74936.002674000003</v>
       </c>
       <c r="V14" s="1">
-        <v>20.815556</v>
+        <v>20.815556000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>958.359000</v>
+        <v>958.35900000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.028500</v>
+        <v>-89.028499999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>74945.890426</v>
+        <v>74945.890425999998</v>
       </c>
       <c r="AA14" s="1">
         <v>20.818303</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.960000</v>
+        <v>965.96</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.489500</v>
+        <v>-77.489500000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>74956.085721</v>
+        <v>74956.085720999996</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.821135</v>
+        <v>20.821135000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.911000</v>
+        <v>970.91099999999994</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.150900</v>
+        <v>-75.150899999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>74966.717433</v>
+        <v>74966.717432999998</v>
       </c>
       <c r="AK14" s="1">
         <v>20.824088</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.298000</v>
+        <v>978.298</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.603900</v>
+        <v>-79.603899999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>74977.144828</v>
+        <v>74977.144828000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.826985</v>
+        <v>20.826985000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.477000</v>
+        <v>986.47699999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.943700</v>
+        <v>-90.943700000000007</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>74988.153069</v>
+        <v>74988.153069000007</v>
       </c>
       <c r="AU14" s="1">
         <v>20.830043</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.334000</v>
+        <v>996.33399999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.365000</v>
+        <v>-108.36499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>74999.184590</v>
+        <v>74999.184590000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.833107</v>
+        <v>20.833106999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.860000</v>
+        <v>-123.86</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>75010.196737</v>
+        <v>75010.196737000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.836166</v>
+        <v>20.836165999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.108000</v>
+        <v>-195.108</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>75021.015506</v>
+        <v>75021.015505999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.839171</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.328000</v>
+        <v>-310.32799999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>75032.907554</v>
+        <v>75032.907554000005</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.842474</v>
+        <v>20.842473999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.643000</v>
+        <v>-490.64299999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>75043.434644</v>
+        <v>75043.434643999994</v>
       </c>
       <c r="BT14" s="1">
         <v>20.845399</v>
       </c>
       <c r="BU14" s="1">
-        <v>1340.510000</v>
+        <v>1340.51</v>
       </c>
       <c r="BV14" s="1">
-        <v>-687.520000</v>
+        <v>-687.52</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>75054.492949</v>
+        <v>75054.492949000007</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.848470</v>
+        <v>20.848469999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1475.260000</v>
+        <v>1475.26</v>
       </c>
       <c r="CA14" s="1">
-        <v>-896.138000</v>
+        <v>-896.13800000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>75066.999573</v>
+        <v>75066.999572999994</v>
       </c>
       <c r="CD14" s="1">
         <v>20.851944</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.530000</v>
+        <v>1825.53</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1391.420000</v>
+        <v>-1391.42</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>74895.039581</v>
+        <v>74895.039581000005</v>
       </c>
       <c r="B15" s="1">
         <v>20.804178</v>
       </c>
       <c r="C15" s="1">
-        <v>902.382000</v>
+        <v>902.38199999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.572000</v>
+        <v>-196.572</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>74905.362810</v>
+        <v>74905.362810000006</v>
       </c>
       <c r="G15" s="1">
-        <v>20.807045</v>
+        <v>20.807044999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>919.883000</v>
+        <v>919.88300000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.320000</v>
+        <v>-167.32</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>74915.913246</v>
+        <v>74915.913245999996</v>
       </c>
       <c r="L15" s="1">
-        <v>20.809976</v>
+        <v>20.809975999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>943.920000</v>
+        <v>943.92</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.890000</v>
+        <v>-119.89</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>74926.481997</v>
+        <v>74926.481996999995</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.812912</v>
+        <v>20.812912000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>951.284000</v>
+        <v>951.28399999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.994000</v>
+        <v>-103.994</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>74936.344417</v>
       </c>
       <c r="V15" s="1">
-        <v>20.815651</v>
+        <v>20.815650999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>958.364000</v>
+        <v>958.36400000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.120500</v>
+        <v>-89.120500000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>74946.311028</v>
+        <v>74946.311027999996</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.818420</v>
+        <v>20.81842</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.956000</v>
+        <v>965.95600000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.450100</v>
+        <v>-77.450100000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>74956.509272</v>
+        <v>74956.509271999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.821253</v>
+        <v>20.821252999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.890000</v>
+        <v>970.89</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.143500</v>
+        <v>-75.143500000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>74966.982297</v>
+        <v>74966.982296999995</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.824162</v>
+        <v>20.824162000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.310000</v>
+        <v>978.31</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.623800</v>
+        <v>-79.623800000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>74977.415147</v>
+        <v>74977.415147000007</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.827060</v>
+        <v>20.827059999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.465000</v>
+        <v>986.46500000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.958200</v>
+        <v>-90.958200000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>74988.515116</v>
+        <v>74988.515115999995</v>
       </c>
       <c r="AU15" s="1">
         <v>20.830143</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.318000</v>
+        <v>996.31799999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.354000</v>
+        <v>-108.354</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>74999.539694</v>
+        <v>74999.539694000006</v>
       </c>
       <c r="AZ15" s="1">
         <v>20.833205</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.874000</v>
+        <v>-123.874</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>75010.559312</v>
+        <v>75010.559311999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.836266</v>
+        <v>20.836265999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.102000</v>
+        <v>-195.102</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>75021.766417</v>
+        <v>75021.766417000006</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.839380</v>
+        <v>20.839379999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.315000</v>
+        <v>-310.315</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>75033.304849</v>
+        <v>75033.304848999993</v>
       </c>
       <c r="BO15" s="1">
         <v>20.842585</v>
       </c>
       <c r="BP15" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.628000</v>
+        <v>-490.62799999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>75043.844339</v>
+        <v>75043.844339000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.845512</v>
+        <v>20.845511999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1340.500000</v>
+        <v>1340.5</v>
       </c>
       <c r="BV15" s="1">
-        <v>-687.531000</v>
+        <v>-687.53099999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>75054.914548</v>
+        <v>75054.914548000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.848587</v>
+        <v>20.848586999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.200000</v>
+        <v>1475.2</v>
       </c>
       <c r="CA15" s="1">
-        <v>-896.146000</v>
+        <v>-896.14599999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>75067.833347</v>
+        <v>75067.833347000007</v>
       </c>
       <c r="CD15" s="1">
         <v>20.852176</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.080000</v>
+        <v>1825.08</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1390.300000</v>
+        <v>-1390.3</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>74895.285100</v>
+        <v>74895.285099999994</v>
       </c>
       <c r="B16" s="1">
-        <v>20.804246</v>
+        <v>20.804245999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>902.466000</v>
+        <v>902.46600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.626000</v>
+        <v>-196.626</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>74905.706543</v>
+        <v>74905.706542999993</v>
       </c>
       <c r="G16" s="1">
-        <v>20.807141</v>
+        <v>20.807141000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>920.238000</v>
+        <v>920.23800000000006</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.092000</v>
+        <v>-167.09200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>74916.261900</v>
+        <v>74916.261899999998</v>
       </c>
       <c r="L16" s="1">
-        <v>20.810073</v>
+        <v>20.810072999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>943.995000</v>
+        <v>943.995</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.989000</v>
+        <v>-119.989</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>74926.828671</v>
+        <v>74926.828670999996</v>
       </c>
       <c r="Q16" s="1">
         <v>20.813008</v>
       </c>
       <c r="R16" s="1">
-        <v>951.275000</v>
+        <v>951.27499999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.006000</v>
+        <v>-104.006</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>74936.767505</v>
+        <v>74936.767504999996</v>
       </c>
       <c r="V16" s="1">
         <v>20.815769</v>
       </c>
       <c r="W16" s="1">
-        <v>958.292000</v>
+        <v>958.29200000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.222600</v>
+        <v>-89.2226</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>74946.586836</v>
+        <v>74946.586836000002</v>
       </c>
       <c r="AA16" s="1">
         <v>20.818496</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.990000</v>
+        <v>965.99</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.492200</v>
+        <v>-77.492199999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>74956.787559</v>
+        <v>74956.787559000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.821330</v>
+        <v>20.82133</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.883000</v>
+        <v>970.88300000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.140400</v>
+        <v>-75.1404</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>74967.329994</v>
@@ -4184,390 +4600,390 @@
         <v>20.824258</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.314000</v>
+        <v>978.31399999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.622500</v>
+        <v>-79.622500000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>74977.790620</v>
+        <v>74977.79062</v>
       </c>
       <c r="AP16" s="1">
         <v>20.827164</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.448000</v>
+        <v>986.44799999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.945800</v>
+        <v>-90.945800000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>74988.878716</v>
+        <v>74988.878716000007</v>
       </c>
       <c r="AU16" s="1">
         <v>20.830244</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.336000</v>
+        <v>996.33600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.358000</v>
+        <v>-108.358</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>75000.264878</v>
+        <v>75000.264878000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.833407</v>
+        <v>20.833407000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.853000</v>
+        <v>-123.85299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>75011.281487</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.836467</v>
+        <v>20.836466999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.100000</v>
+        <v>-195.1</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>75022.141920</v>
+        <v>75022.141919999995</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.839484</v>
+        <v>20.839483999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.312000</v>
+        <v>-310.31200000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>75033.725456</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.842702</v>
+        <v>20.842701999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.683000</v>
+        <v>-490.68299999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>75044.274867</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.845632</v>
+        <v>20.845631999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1340.440000</v>
+        <v>1340.44</v>
       </c>
       <c r="BV16" s="1">
-        <v>-687.538000</v>
+        <v>-687.53800000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>75055.648164</v>
+        <v>75055.648163999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.848791</v>
+        <v>20.848790999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1475.320000</v>
+        <v>1475.32</v>
       </c>
       <c r="CA16" s="1">
-        <v>-896.145000</v>
+        <v>-896.14499999999998</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>75068.059536</v>
+        <v>75068.059536000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.852239</v>
+        <v>20.852239000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1825.200000</v>
+        <v>1825.2</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1390.170000</v>
+        <v>-1390.17</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>74895.630807</v>
+        <v>74895.630806999994</v>
       </c>
       <c r="B17" s="1">
-        <v>20.804342</v>
+        <v>20.804341999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>902.304000</v>
+        <v>902.30399999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.557000</v>
+        <v>-196.55699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>74906.052745</v>
+        <v>74906.052744999994</v>
       </c>
       <c r="G17" s="1">
-        <v>20.807237</v>
+        <v>20.807237000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>919.816000</v>
+        <v>919.81600000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.389000</v>
+        <v>-167.38900000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>74916.690939</v>
+        <v>74916.690938999993</v>
       </c>
       <c r="L17" s="1">
-        <v>20.810192</v>
+        <v>20.810192000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>944.073000</v>
+        <v>944.07299999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.019000</v>
+        <v>-120.01900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>74927.266637</v>
+        <v>74927.266636999993</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.813130</v>
+        <v>20.813130000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>951.269000</v>
+        <v>951.26900000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.033000</v>
+        <v>-104.033</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>74937.043280</v>
+        <v>74937.043279999998</v>
       </c>
       <c r="V17" s="1">
-        <v>20.815845</v>
+        <v>20.815844999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>958.306000</v>
+        <v>958.30600000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.099700</v>
+        <v>-89.099699999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>74946.939459</v>
+        <v>74946.939459000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.818594</v>
+        <v>20.818594000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.959000</v>
+        <v>965.95899999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.451800</v>
+        <v>-77.451800000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>74957.131751</v>
+        <v>74957.131750999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.821425</v>
+        <v>20.821425000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.878000</v>
+        <v>970.87800000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.177400</v>
+        <v>-75.177400000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>74967.678184</v>
+        <v>74967.678184000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.824355</v>
+        <v>20.824355000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.312000</v>
+        <v>978.31200000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.640200</v>
+        <v>-79.640199999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>74978.415309</v>
+        <v>74978.415309000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.827338</v>
+        <v>20.827338000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.480000</v>
+        <v>986.48</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.951000</v>
+        <v>-90.950999999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>74989.607803</v>
+        <v>74989.607803000006</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.830447</v>
+        <v>20.830446999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.308000</v>
+        <v>996.30799999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.360000</v>
+        <v>-108.36</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>75000.639820</v>
+        <v>75000.639819999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.833511</v>
+        <v>20.833511000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.863000</v>
+        <v>-123.863</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>75011.641619</v>
+        <v>75011.641619000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.836567</v>
+        <v>20.836566999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.101000</v>
+        <v>-195.101</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>75022.516405</v>
+        <v>75022.516405000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.839588</v>
+        <v>20.839587999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.250000</v>
+        <v>1110.25</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.311000</v>
+        <v>-310.31099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>75034.436721</v>
+        <v>75034.436721000005</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.842899</v>
+        <v>20.842898999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.640000</v>
+        <v>-490.64</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>75044.764418</v>
+        <v>75044.764418000006</v>
       </c>
       <c r="BT17" s="1">
         <v>20.845768</v>
       </c>
       <c r="BU17" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV17" s="1">
-        <v>-687.544000</v>
+        <v>-687.54399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>75055.757760</v>
+        <v>75055.757759999993</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.848822</v>
+        <v>20.848821999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1475.180000</v>
+        <v>1475.18</v>
       </c>
       <c r="CA17" s="1">
-        <v>-896.209000</v>
+        <v>-896.20899999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>75068.578339</v>
@@ -4576,30 +4992,30 @@
         <v>20.852383</v>
       </c>
       <c r="CE17" s="1">
-        <v>1825.250000</v>
+        <v>1825.25</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1391.330000</v>
+        <v>-1391.33</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>74896.053895</v>
+        <v>74896.053895000005</v>
       </c>
       <c r="B18" s="1">
-        <v>20.804459</v>
+        <v>20.804459000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>902.311000</v>
+        <v>902.31100000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.613000</v>
+        <v>-196.613</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>74906.484761</v>
@@ -4608,587 +5024,587 @@
         <v>20.807357</v>
       </c>
       <c r="H18" s="1">
-        <v>919.982000</v>
+        <v>919.98199999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.139000</v>
+        <v>-167.13900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>74916.962747</v>
+        <v>74916.962746999998</v>
       </c>
       <c r="L18" s="1">
         <v>20.810267</v>
       </c>
       <c r="M18" s="1">
-        <v>943.983000</v>
+        <v>943.98299999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.941000</v>
+        <v>-119.941</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>74927.530509</v>
+        <v>74927.530509000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.813203</v>
+        <v>20.813203000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>951.268000</v>
+        <v>951.26800000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.040000</v>
+        <v>-104.04</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>74937.388012</v>
+        <v>74937.388011999996</v>
       </c>
       <c r="V18" s="1">
-        <v>20.815941</v>
+        <v>20.815940999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>958.167000</v>
+        <v>958.16700000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.156500</v>
+        <v>-89.156499999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>74947.286163</v>
+        <v>74947.286162999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.818691</v>
+        <v>20.818691000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.996000</v>
+        <v>965.99599999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.455900</v>
+        <v>-77.4559</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>74957.475975</v>
+        <v>74957.475974999994</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.821521</v>
+        <v>20.821521000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.910000</v>
+        <v>970.91</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.134300</v>
+        <v>-75.134299999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>74968.374103</v>
+        <v>74968.374102999995</v>
       </c>
       <c r="AK18" s="1">
         <v>20.824548</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.317000</v>
+        <v>978.31700000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.641400</v>
+        <v>-79.641400000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>74978.862969</v>
+        <v>74978.862968999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.827462</v>
+        <v>20.827462000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.476000</v>
+        <v>986.476</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.976700</v>
+        <v>-90.976699999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>74989.992699</v>
+        <v>74989.992698999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.830554</v>
+        <v>20.830553999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.316000</v>
+        <v>996.31600000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.358000</v>
+        <v>-108.358</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>75001.018764</v>
+        <v>75001.018763999993</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.833616</v>
+        <v>20.833615999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>75012.320605</v>
+        <v>75012.320605000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.836756</v>
+        <v>20.836756000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.102000</v>
+        <v>-195.102</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>75023.210271</v>
+        <v>75023.210271000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.839781</v>
+        <v>20.839780999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.210000</v>
+        <v>1110.21</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.313000</v>
+        <v>-310.31299999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>75034.559728</v>
+        <v>75034.559727999993</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.842933</v>
+        <v>20.842932999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.654000</v>
+        <v>-490.654</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>75045.114626</v>
+        <v>75045.114625999995</v>
       </c>
       <c r="BT18" s="1">
         <v>20.845865</v>
       </c>
       <c r="BU18" s="1">
-        <v>1340.550000</v>
+        <v>1340.55</v>
       </c>
       <c r="BV18" s="1">
-        <v>-687.570000</v>
+        <v>-687.57</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>75056.191747</v>
+        <v>75056.191747000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.848942</v>
+        <v>20.848942000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.210000</v>
+        <v>1475.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-896.096000</v>
+        <v>-896.096</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>75069.097673</v>
+        <v>75069.097672999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.852527</v>
+        <v>20.852526999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1824.730000</v>
+        <v>1824.73</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1390.520000</v>
+        <v>-1390.52</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>74896.327686</v>
+        <v>74896.327686000004</v>
       </c>
       <c r="B19" s="1">
-        <v>20.804535</v>
+        <v>20.804535000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>902.454000</v>
+        <v>902.45399999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.506000</v>
+        <v>-196.506</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>74906.764009</v>
+        <v>74906.764009000006</v>
       </c>
       <c r="G19" s="1">
-        <v>20.807434</v>
+        <v>20.807434000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.906000</v>
+        <v>919.90599999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.806000</v>
+        <v>-167.80600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>74917.310938</v>
+        <v>74917.310937999995</v>
       </c>
       <c r="L19" s="1">
         <v>20.810364</v>
       </c>
       <c r="M19" s="1">
-        <v>944.008000</v>
+        <v>944.00800000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.891000</v>
+        <v>-119.89100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>74927.881180</v>
+        <v>74927.881179999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.813300</v>
+        <v>20.813300000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>951.177000</v>
+        <v>951.17700000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.010000</v>
+        <v>-104.01</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>74937.731729</v>
+        <v>74937.731729000006</v>
       </c>
       <c r="V19" s="1">
-        <v>20.816037</v>
+        <v>20.816037000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>958.350000</v>
+        <v>958.35</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.944300</v>
+        <v>-88.944299999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>74947.981586</v>
+        <v>74947.981585999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.818884</v>
+        <v>20.818884000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.969000</v>
+        <v>965.96900000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.526000</v>
+        <v>-77.525999999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>74958.161478</v>
+        <v>74958.161477999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.821712</v>
+        <v>20.821712000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.914000</v>
+        <v>970.91399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.154400</v>
+        <v>-75.154399999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>74968.723255</v>
+        <v>74968.723255000004</v>
       </c>
       <c r="AK19" s="1">
         <v>20.824645</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.297000</v>
+        <v>978.29700000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.617700</v>
+        <v>-79.617699999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>74979.239928</v>
+        <v>74979.239927999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.827567</v>
+        <v>20.827566999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.482000</v>
+        <v>986.48199999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.966400</v>
+        <v>-90.966399999999993</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>74990.361226</v>
+        <v>74990.361225999994</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.830656</v>
+        <v>20.830656000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.332000</v>
+        <v>996.33199999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.356000</v>
+        <v>-108.35599999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>75001.705723</v>
+        <v>75001.705723000006</v>
       </c>
       <c r="AZ19" s="1">
         <v>20.833807</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.848000</v>
+        <v>-123.848</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>75012.742701</v>
+        <v>75012.742700999996</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.836873</v>
+        <v>20.836873000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1043.290000</v>
+        <v>1043.29</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.107000</v>
+        <v>-195.107</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>75023.643776</v>
+        <v>75023.643775999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.839901</v>
+        <v>20.839901000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.305000</v>
+        <v>-310.30500000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>75034.970938</v>
+        <v>75034.970937999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.843047</v>
+        <v>20.843046999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.680000</v>
+        <v>-490.68</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>75045.543665</v>
+        <v>75045.543665000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.845984</v>
+        <v>20.845984000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1340.480000</v>
+        <v>1340.48</v>
       </c>
       <c r="BV19" s="1">
-        <v>-687.524000</v>
+        <v>-687.524</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>75056.648562</v>
+        <v>75056.648562000002</v>
       </c>
       <c r="BY19" s="1">
         <v>20.849069</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1475.240000</v>
+        <v>1475.24</v>
       </c>
       <c r="CA19" s="1">
-        <v>-896.153000</v>
+        <v>-896.15300000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>75069.649201</v>
+        <v>75069.649200999993</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.852680</v>
+        <v>20.852679999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1825.280000</v>
+        <v>1825.28</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1389.980000</v>
+        <v>-1389.98</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>74896.671910</v>
+        <v>74896.671910000005</v>
       </c>
       <c r="B20" s="1">
-        <v>20.804631</v>
+        <v>20.804631000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>902.351000</v>
+        <v>902.351</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.592000</v>
+        <v>-196.59200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>74907.109721</v>
+        <v>74907.109721000001</v>
       </c>
       <c r="G20" s="1">
-        <v>20.807530</v>
+        <v>20.80753</v>
       </c>
       <c r="H20" s="1">
-        <v>919.954000</v>
+        <v>919.95399999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.459000</v>
+        <v>-167.459</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>74917.657642</v>
+        <v>74917.657642000006</v>
       </c>
       <c r="L20" s="1">
-        <v>20.810460</v>
+        <v>20.810459999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>944.004000</v>
+        <v>944.00400000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.023000</v>
+        <v>-120.023</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>74928.468940</v>
+        <v>74928.468940000006</v>
       </c>
       <c r="Q20" s="1">
         <v>20.813464</v>
       </c>
       <c r="R20" s="1">
-        <v>951.236000</v>
+        <v>951.23599999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.011000</v>
+        <v>-104.011</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>74938.413759</v>
+        <v>74938.413759000003</v>
       </c>
       <c r="V20" s="1">
         <v>20.816226</v>
       </c>
       <c r="W20" s="1">
-        <v>958.341000</v>
+        <v>958.34100000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.180900</v>
+        <v>-89.180899999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>74948.332755</v>
+        <v>74948.332754999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.818981</v>
+        <v>20.818981000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.893000</v>
+        <v>965.89300000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.366500</v>
+        <v>-77.366500000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>74958.504212</v>
@@ -5197,1208 +5613,1208 @@
         <v>20.821807</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.902000</v>
+        <v>970.90200000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.127200</v>
+        <v>-75.127200000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>74969.070950</v>
+        <v>74969.070949999994</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.824742</v>
+        <v>20.824742000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.281000</v>
+        <v>978.28099999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.603200</v>
+        <v>-79.603200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>74979.919480</v>
+        <v>74979.919479999997</v>
       </c>
       <c r="AP20" s="1">
         <v>20.827755</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.474000</v>
+        <v>986.47400000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.945600</v>
+        <v>-90.945599999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>74991.050169</v>
+        <v>74991.050168999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.830847</v>
+        <v>20.830846999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.322000</v>
+        <v>996.322</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.345000</v>
+        <v>-108.345</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>75002.103020</v>
+        <v>75002.103019999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.833918</v>
+        <v>20.833918000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.857000</v>
+        <v>-123.857</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>75013.102300</v>
+        <v>75013.102299999999</v>
       </c>
       <c r="BE20" s="1">
         <v>20.836973</v>
       </c>
       <c r="BF20" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.093000</v>
+        <v>-195.09299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>75024.018785</v>
+        <v>75024.018784999993</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.840005</v>
+        <v>20.840005000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.302000</v>
+        <v>-310.30200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>75035.366718</v>
+        <v>75035.366718000005</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.843157</v>
+        <v>20.843157000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.660000</v>
+        <v>-490.66</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>75045.968208</v>
+        <v>75045.968208000006</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.846102</v>
+        <v>20.846101999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV20" s="1">
-        <v>-687.569000</v>
+        <v>-687.56899999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>75057.097453</v>
+        <v>75057.097452999995</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.849194</v>
+        <v>20.849194000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1475.270000</v>
+        <v>1475.27</v>
       </c>
       <c r="CA20" s="1">
-        <v>-896.179000</v>
+        <v>-896.17899999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>75070.179935</v>
+        <v>75070.179934999993</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.852828</v>
+        <v>20.852827999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1825.060000</v>
+        <v>1825.06</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1391.150000</v>
+        <v>-1391.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>74897.009686</v>
+        <v>74897.009686000005</v>
       </c>
       <c r="B21" s="1">
-        <v>20.804725</v>
+        <v>20.804725000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>902.212000</v>
+        <v>902.21199999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.586000</v>
+        <v>-196.58600000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>74907.454441</v>
+        <v>74907.454440999994</v>
       </c>
       <c r="G21" s="1">
-        <v>20.807626</v>
+        <v>20.807625999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.745000</v>
+        <v>919.745</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.206000</v>
+        <v>-167.20599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>74918.354070</v>
+        <v>74918.354070000001</v>
       </c>
       <c r="L21" s="1">
         <v>20.810654</v>
       </c>
       <c r="M21" s="1">
-        <v>944.197000</v>
+        <v>944.197</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.814000</v>
+        <v>-119.81399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>74928.578556</v>
+        <v>74928.578555999993</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.813494</v>
+        <v>20.813493999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>951.256000</v>
+        <v>951.25599999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.967000</v>
+        <v>-103.967</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>74938.762912</v>
+        <v>74938.762912000006</v>
       </c>
       <c r="V21" s="1">
-        <v>20.816323</v>
+        <v>20.816323000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>958.397000</v>
+        <v>958.39700000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.077200</v>
+        <v>-89.077200000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>74948.678962</v>
+        <v>74948.678962000005</v>
       </c>
       <c r="AA21" s="1">
         <v>20.819077</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.011000</v>
+        <v>966.01099999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.487100</v>
+        <v>-77.487099999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>74958.849893</v>
+        <v>74958.849893000006</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.821903</v>
+        <v>20.821902999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.938000</v>
+        <v>970.93799999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.184500</v>
+        <v>-75.1845</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>74969.740551</v>
+        <v>74969.740550999995</v>
       </c>
       <c r="AK21" s="1">
         <v>20.824928</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.323000</v>
+        <v>978.32299999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.638500</v>
+        <v>-79.638499999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>74980.318264</v>
+        <v>74980.318264000001</v>
       </c>
       <c r="AP21" s="1">
         <v>20.827866</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.455000</v>
+        <v>986.45500000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.961800</v>
+        <v>-90.961799999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>74991.482184</v>
+        <v>74991.482183999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.830967</v>
+        <v>20.830967000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.323000</v>
+        <v>996.32299999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.359000</v>
+        <v>-108.35899999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>75002.477994</v>
+        <v>75002.477994000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.834022</v>
+        <v>20.834022000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.854000</v>
+        <v>-123.854</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>75013.466891</v>
+        <v>75013.466891000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.837074</v>
+        <v>20.837074000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1043.310000</v>
+        <v>1043.31</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.114000</v>
+        <v>-195.114</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>75024.391277</v>
+        <v>75024.391277000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.840109</v>
+        <v>20.840109000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.220000</v>
+        <v>1110.22</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.306000</v>
+        <v>-310.30599999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>75035.791821</v>
+        <v>75035.791821000006</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.843276</v>
+        <v>20.843275999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.629000</v>
+        <v>-490.62900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>75046.373936</v>
+        <v>75046.373936000004</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.846215</v>
+        <v>20.846215000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1340.540000</v>
+        <v>1340.54</v>
       </c>
       <c r="BV21" s="1">
-        <v>-687.554000</v>
+        <v>-687.55399999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>75057.554787</v>
+        <v>75057.554787000001</v>
       </c>
       <c r="BY21" s="1">
         <v>20.849321</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1475.310000</v>
+        <v>1475.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-896.074000</v>
+        <v>-896.07399999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>75070.694801</v>
+        <v>75070.694801000005</v>
       </c>
       <c r="CD21" s="1">
         <v>20.852971</v>
       </c>
       <c r="CE21" s="1">
-        <v>1824.840000</v>
+        <v>1824.84</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1390.320000</v>
+        <v>-1390.32</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>74897.692180</v>
+        <v>74897.692179999998</v>
       </c>
       <c r="B22" s="1">
         <v>20.804914</v>
       </c>
       <c r="C22" s="1">
-        <v>902.371000</v>
+        <v>902.37099999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.458000</v>
+        <v>-196.458</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>74908.148839</v>
+        <v>74908.148839000001</v>
       </c>
       <c r="G22" s="1">
-        <v>20.807819</v>
+        <v>20.807818999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>919.961000</v>
+        <v>919.96100000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.826000</v>
+        <v>-166.82599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>74918.703782</v>
+        <v>74918.703781999997</v>
       </c>
       <c r="L22" s="1">
         <v>20.810751</v>
       </c>
       <c r="M22" s="1">
-        <v>944.083000</v>
+        <v>944.08299999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.764000</v>
+        <v>-119.764</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>74928.924268</v>
+        <v>74928.924268000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.813590</v>
+        <v>20.813590000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.294000</v>
+        <v>951.29399999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.043000</v>
+        <v>-104.04300000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>74939.105646</v>
+        <v>74939.105645999996</v>
       </c>
       <c r="V22" s="1">
-        <v>20.816418</v>
+        <v>20.816417999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>958.311000</v>
+        <v>958.31100000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.075300</v>
+        <v>-89.075299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>74949.350513</v>
+        <v>74949.350512999998</v>
       </c>
       <c r="AA22" s="1">
         <v>20.819264</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.967000</v>
+        <v>965.96699999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.501900</v>
+        <v>-77.501900000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>74959.519028</v>
+        <v>74959.519027999995</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.822089</v>
+        <v>20.822088999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.900000</v>
+        <v>970.9</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.183900</v>
+        <v>-75.183899999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>74970.116517</v>
+        <v>74970.116517000002</v>
       </c>
       <c r="AK22" s="1">
         <v>20.825032</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.309000</v>
+        <v>978.30899999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.617700</v>
+        <v>-79.617699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>74980.684775</v>
+        <v>74980.684775000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.827968</v>
+        <v>20.827967999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.467000</v>
+        <v>986.46699999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.955200</v>
+        <v>-90.955200000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>74991.846746</v>
+        <v>74991.846745999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.831069</v>
+        <v>20.831068999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.325000</v>
+        <v>996.32500000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.352000</v>
+        <v>-108.352</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>75002.856441</v>
+        <v>75002.856440999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.834127</v>
+        <v>20.834126999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.580000</v>
+        <v>1004.58</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.850000</v>
+        <v>-123.85</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>75013.894438</v>
+        <v>75013.894438000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.837193</v>
+        <v>20.837192999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1043.290000</v>
+        <v>1043.29</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.109000</v>
+        <v>-195.10900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>75024.817308</v>
+        <v>75024.817307999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.840227</v>
+        <v>20.840226999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.260000</v>
+        <v>1110.26</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.312000</v>
+        <v>-310.31200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>75036.184653</v>
+        <v>75036.184653000004</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.843385</v>
+        <v>20.843385000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.652000</v>
+        <v>-490.65199999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>75046.788591</v>
+        <v>75046.788591000004</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.846330</v>
+        <v>20.846329999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1340.530000</v>
+        <v>1340.53</v>
       </c>
       <c r="BV22" s="1">
-        <v>-687.563000</v>
+        <v>-687.56299999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>75058.003633</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.849445</v>
+        <v>20.849444999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1475.360000</v>
+        <v>1475.36</v>
       </c>
       <c r="CA22" s="1">
-        <v>-896.100000</v>
+        <v>-896.1</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>75071.249295</v>
+        <v>75071.249295000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.853125</v>
+        <v>20.853124999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.640000</v>
+        <v>1825.64</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1389.830000</v>
+        <v>-1389.83</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>74898.036900</v>
+        <v>74898.036900000006</v>
       </c>
       <c r="B23" s="1">
-        <v>20.805010</v>
+        <v>20.805009999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>902.309000</v>
+        <v>902.30899999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.544000</v>
+        <v>-196.54400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>74908.491079</v>
+        <v>74908.491078999999</v>
       </c>
       <c r="G23" s="1">
         <v>20.807914</v>
       </c>
       <c r="H23" s="1">
-        <v>919.915000</v>
+        <v>919.91499999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.631000</v>
+        <v>-167.631</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>74919.047961</v>
+        <v>74919.047961000004</v>
       </c>
       <c r="L23" s="1">
-        <v>20.810847</v>
+        <v>20.810846999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>943.995000</v>
+        <v>943.995</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.053000</v>
+        <v>-120.053</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>74929.597834</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.813777</v>
+        <v>20.813777000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>951.274000</v>
+        <v>951.274</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.062000</v>
+        <v>-104.062</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>74939.764862</v>
+        <v>74939.764861999996</v>
       </c>
       <c r="V23" s="1">
-        <v>20.816601</v>
+        <v>20.816600999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>958.349000</v>
+        <v>958.34900000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.227900</v>
+        <v>-89.227900000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>74949.726481</v>
+        <v>74949.726481000005</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.819368</v>
+        <v>20.819368000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.966000</v>
+        <v>965.96600000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.491800</v>
+        <v>-77.491799999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>74959.888547</v>
+        <v>74959.888546999995</v>
       </c>
       <c r="AF23" s="1">
         <v>20.822191</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.803000</v>
+        <v>970.803</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.112300</v>
+        <v>-75.112300000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>74970.465847</v>
+        <v>74970.465846999999</v>
       </c>
       <c r="AK23" s="1">
         <v>20.825129</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.301000</v>
+        <v>978.30100000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.634000</v>
+        <v>-79.634</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>74981.041399</v>
+        <v>74981.041398999994</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.828067</v>
+        <v>20.828067000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.465000</v>
+        <v>986.46500000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.959800</v>
+        <v>-90.959800000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>74992.210807</v>
+        <v>74992.210806999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.831170</v>
+        <v>20.83117</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.338000</v>
+        <v>996.33799999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.362000</v>
+        <v>-108.36199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>75003.285977</v>
+        <v>75003.285977000007</v>
       </c>
       <c r="AZ23" s="1">
         <v>20.834246</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.590000</v>
+        <v>1004.59</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>75014.189562</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.837275</v>
+        <v>20.837275000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1043.290000</v>
+        <v>1043.29</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>75025.171948</v>
+        <v>75025.171948000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.840326</v>
+        <v>20.840326000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.333000</v>
+        <v>-310.33300000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>75036.601757</v>
+        <v>75036.601756999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.843500</v>
+        <v>20.843499999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.705000</v>
+        <v>-490.70499999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>75047.205232</v>
+        <v>75047.205231999993</v>
       </c>
       <c r="BT23" s="1">
         <v>20.846446</v>
       </c>
       <c r="BU23" s="1">
-        <v>1340.510000</v>
+        <v>1340.51</v>
       </c>
       <c r="BV23" s="1">
-        <v>-687.537000</v>
+        <v>-687.53700000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>75058.453504</v>
+        <v>75058.453504000005</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.849570</v>
+        <v>20.84957</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1475.230000</v>
+        <v>1475.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-896.262000</v>
+        <v>-896.26199999999994</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>75071.782031</v>
+        <v>75071.782030999995</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.853273</v>
+        <v>20.853273000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1824.920000</v>
+        <v>1824.92</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1390.810000</v>
+        <v>-1390.81</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>74898.379139</v>
+        <v>74898.379138999997</v>
       </c>
       <c r="B24" s="1">
-        <v>20.805105</v>
+        <v>20.805105000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>902.417000</v>
+        <v>902.41700000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.523000</v>
+        <v>-196.523</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>74908.839804</v>
+        <v>74908.839804000003</v>
       </c>
       <c r="G24" s="1">
         <v>20.808011</v>
       </c>
       <c r="H24" s="1">
-        <v>920.075000</v>
+        <v>920.07500000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.103000</v>
+        <v>-167.10300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>74919.710583</v>
+        <v>74919.710582999993</v>
       </c>
       <c r="L24" s="1">
         <v>20.811031</v>
       </c>
       <c r="M24" s="1">
-        <v>943.850000</v>
+        <v>943.85</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.929000</v>
+        <v>-119.929</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>74929.973305</v>
+        <v>74929.973305000007</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.813881</v>
+        <v>20.813880999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>951.225000</v>
+        <v>951.22500000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.008000</v>
+        <v>-104.008</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>74940.133356</v>
+        <v>74940.133356000006</v>
       </c>
       <c r="V24" s="1">
-        <v>20.816704</v>
+        <v>20.816704000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.293000</v>
+        <v>958.29300000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.114200</v>
+        <v>-89.114199999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>74950.076159</v>
+        <v>74950.076159000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.819466</v>
+        <v>20.819465999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.948000</v>
+        <v>965.94799999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.505700</v>
+        <v>-77.505700000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>74960.235219</v>
+        <v>74960.235218999995</v>
       </c>
       <c r="AF24" s="1">
         <v>20.822288</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.827000</v>
+        <v>970.827</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.089800</v>
+        <v>-75.089799999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>74970.814387</v>
+        <v>74970.814387000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.825226</v>
+        <v>20.825226000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.305000</v>
+        <v>978.30499999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.631000</v>
+        <v>-79.631</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>74981.457046</v>
+        <v>74981.457045999996</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.828183</v>
+        <v>20.828182999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.478000</v>
+        <v>986.47799999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.968400</v>
+        <v>-90.968400000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>74992.633399</v>
+        <v>74992.633398999998</v>
       </c>
       <c r="AU24" s="1">
         <v>20.831287</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.314000</v>
+        <v>996.31399999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.349000</v>
+        <v>-108.349</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>75003.576632</v>
+        <v>75003.576631999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.834327</v>
+        <v>20.834326999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.856000</v>
+        <v>-123.85599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>75014.549628</v>
+        <v>75014.549627999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.837375</v>
+        <v>20.837375000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1043.290000</v>
+        <v>1043.29</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>75025.548907</v>
+        <v>75025.548907000004</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.840430</v>
+        <v>20.840430000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.336000</v>
+        <v>-310.33600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>75037.000082</v>
+        <v>75037.000081999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.843611</v>
+        <v>20.843610999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.659000</v>
+        <v>-490.65899999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>75047.631790</v>
+        <v>75047.631789999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.846564</v>
+        <v>20.846564000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-687.535000</v>
+        <v>-687.53499999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>75058.878608</v>
+        <v>75058.878607999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.849689</v>
+        <v>20.849689000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1475.270000</v>
+        <v>1475.27</v>
       </c>
       <c r="CA24" s="1">
-        <v>-896.187000</v>
+        <v>-896.18700000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>75072.296845</v>
+        <v>75072.296845000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.853416</v>
+        <v>20.853415999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.730000</v>
+        <v>1825.73</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1391.600000</v>
+        <v>-1391.6</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>74899.037363</v>
+        <v>74899.037362999996</v>
       </c>
       <c r="B25" s="1">
-        <v>20.805288</v>
+        <v>20.805288000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.364000</v>
+        <v>902.36400000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.437000</v>
+        <v>-196.43700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>74909.497957</v>
@@ -6407,497 +6823,498 @@
         <v>20.808194</v>
       </c>
       <c r="H25" s="1">
-        <v>919.887000</v>
+        <v>919.88699999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.736000</v>
+        <v>-166.73599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>74920.084567</v>
+        <v>74920.084566999998</v>
       </c>
       <c r="L25" s="1">
         <v>20.811135</v>
       </c>
       <c r="M25" s="1">
-        <v>944.157000</v>
+        <v>944.15700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.997000</v>
+        <v>-119.997</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>74930.321497</v>
+        <v>74930.321496999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.813978</v>
+        <v>20.813977999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>951.239000</v>
+        <v>951.23900000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.991000</v>
+        <v>-103.991</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>74940.466668</v>
+        <v>74940.466667999994</v>
       </c>
       <c r="V25" s="1">
         <v>20.816796</v>
       </c>
       <c r="W25" s="1">
-        <v>958.368000</v>
+        <v>958.36800000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.181400</v>
+        <v>-89.181399999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>74950.424351</v>
+        <v>74950.424350999994</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.819562</v>
+        <v>20.819562000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.951000</v>
+        <v>965.95100000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.446000</v>
+        <v>-77.445999999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>74960.582417</v>
+        <v>74960.582416999998</v>
       </c>
       <c r="AF25" s="1">
         <v>20.822384</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.914000</v>
+        <v>970.91399999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.092600</v>
+        <v>-75.092600000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>74971.240985</v>
+        <v>74971.240984999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.825345</v>
+        <v>20.825344999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.300000</v>
+        <v>978.3</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.635700</v>
+        <v>-79.6357</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>74981.762608</v>
+        <v>74981.762608000005</v>
       </c>
       <c r="AP25" s="1">
         <v>20.828267</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.472000</v>
+        <v>986.47199999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.946800</v>
+        <v>-90.946799999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>74992.940423</v>
+        <v>74992.940422999993</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.831372</v>
+        <v>20.831372000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.330000</v>
+        <v>996.33</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.357000</v>
+        <v>-108.357</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>75003.934281</v>
+        <v>75003.934280999994</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.834426</v>
+        <v>20.834426000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.610000</v>
+        <v>1004.61</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.866000</v>
+        <v>-123.866</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>75014.910714</v>
+        <v>75014.910713999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.837475</v>
+        <v>20.837475000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>75025.922923</v>
+        <v>75025.922923000006</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.840534</v>
+        <v>20.840534000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.240000</v>
+        <v>1110.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.314000</v>
+        <v>-310.31400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>75037.438508</v>
+        <v>75037.438508000007</v>
       </c>
       <c r="BO25" s="1">
         <v>20.843733</v>
       </c>
       <c r="BP25" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.663000</v>
+        <v>-490.66300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>75048.036527</v>
+        <v>75048.036527000004</v>
       </c>
       <c r="BT25" s="1">
         <v>20.846677</v>
       </c>
       <c r="BU25" s="1">
-        <v>1340.530000</v>
+        <v>1340.53</v>
       </c>
       <c r="BV25" s="1">
-        <v>-687.521000</v>
+        <v>-687.52099999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>75059.299184</v>
+        <v>75059.299184000003</v>
       </c>
       <c r="BY25" s="1">
         <v>20.849805</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1475.280000</v>
+        <v>1475.28</v>
       </c>
       <c r="CA25" s="1">
-        <v>-896.263000</v>
+        <v>-896.26300000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>75072.819629</v>
+        <v>75072.819629000005</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.853561</v>
+        <v>20.853560999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.470000</v>
+        <v>1826.47</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1390.500000</v>
+        <v>-1390.5</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>74899.405507</v>
+        <v>74899.405507000003</v>
       </c>
       <c r="B26" s="1">
-        <v>20.805390</v>
+        <v>20.805389999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.427000</v>
+        <v>902.42700000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.554000</v>
+        <v>-196.554</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>74909.873428</v>
+        <v>74909.873428000006</v>
       </c>
       <c r="G26" s="1">
-        <v>20.808298</v>
+        <v>20.808298000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.991000</v>
+        <v>919.99099999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.228000</v>
+        <v>-167.22800000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>74920.428792</v>
+        <v>74920.428792000006</v>
       </c>
       <c r="L26" s="1">
-        <v>20.811230</v>
+        <v>20.811229999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>943.992000</v>
+        <v>943.99199999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.974000</v>
+        <v>-119.974</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>74930.671705</v>
+        <v>74930.671705000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.814075</v>
+        <v>20.814074999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>951.268000</v>
+        <v>951.26800000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.012000</v>
+        <v>-104.012</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>74940.820843</v>
+        <v>74940.820842999994</v>
       </c>
       <c r="V26" s="1">
-        <v>20.816895</v>
+        <v>20.816894999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>958.269000</v>
+        <v>958.26900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.104300</v>
+        <v>-89.104299999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>74950.858350</v>
+        <v>74950.858349999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.819683</v>
+        <v>20.819683000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.973000</v>
+        <v>965.97299999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.453700</v>
+        <v>-77.453699999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>74961.023857</v>
+        <v>74961.023856999993</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.822507</v>
+        <v>20.822507000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.885000</v>
+        <v>970.88499999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.132400</v>
+        <v>-75.132400000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>74971.523699</v>
+        <v>74971.523698999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.825423</v>
+        <v>20.825423000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.315000</v>
+        <v>978.31500000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.611200</v>
+        <v>-79.611199999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>74982.121686</v>
+        <v>74982.121685999999</v>
       </c>
       <c r="AP26" s="1">
         <v>20.828367</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.476000</v>
+        <v>986.476</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.950600</v>
+        <v>-90.950599999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>74993.304486</v>
+        <v>74993.304485999994</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.831473</v>
+        <v>20.831472999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.315000</v>
+        <v>996.31500000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.355000</v>
+        <v>-108.355</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>75004.290376</v>
+        <v>75004.290376000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.834525</v>
+        <v>20.834524999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.600000</v>
+        <v>1004.6</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.865000</v>
+        <v>-123.86499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>75015.638874</v>
+        <v>75015.638873999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.837677</v>
+        <v>20.837676999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1043.280000</v>
+        <v>1043.28</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.105000</v>
+        <v>-195.10499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>75026.695696</v>
+        <v>75026.695695999995</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.840749</v>
+        <v>20.840748999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.230000</v>
+        <v>1110.23</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.291000</v>
+        <v>-310.291</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>75037.818939</v>
+        <v>75037.818939000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.843839</v>
+        <v>20.843838999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.617000</v>
+        <v>-490.61700000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>75048.474991</v>
+        <v>75048.474990999995</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.846799</v>
+        <v>20.846799000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1340.540000</v>
+        <v>1340.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-687.587000</v>
+        <v>-687.58699999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>75059.744094</v>
+        <v>75059.744093999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.849929</v>
+        <v>20.849928999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.250000</v>
+        <v>1475.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-896.229000</v>
+        <v>-896.22900000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>75073.648444</v>
+        <v>75073.648444000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.853791</v>
+        <v>20.853791000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1825.430000</v>
+        <v>1825.43</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1389.940000</v>
+        <v>-1389.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>